--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75D11C-4885-4179-BECF-7A631CFF4DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48EFB2-68B2-4B82-B973-765AE3F791E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>C:\RPA\ACME-System3-v0.1</t>
+  </si>
+  <si>
+    <t>C:\RPA\KS_재정통계자료작성\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -599,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78B8AA-D076-46A8-B429-FDCCC375A88F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -655,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -689,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48EFB2-68B2-4B82-B973-765AE3F791E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F467F2-FD64-4D5C-90B7-1DEAE39282CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-588" yWindow="1368" windowWidth="22740" windowHeight="10416" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,22 +146,29 @@
     <t>C:\RPA\KS_재정통계자료작성\Result</t>
   </si>
   <si>
-    <t>C:\RPA\고객정보_시스템확인\Template</t>
-  </si>
-  <si>
-    <t>C:\RPA\고객정보_시스템확인\SourceData</t>
-  </si>
-  <si>
-    <t>C:\RPA\고객정보_시스템확인\Result</t>
-  </si>
-  <si>
     <t>https://acme-test.uipath.com/</t>
   </si>
   <si>
-    <t>C:\RPA\ACME-System3-v0.1</t>
-  </si>
-  <si>
     <t>C:\RPA\KS_재정통계자료작성\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\고객정보_시스템확인\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\ACME-System3-v0.1\ACME-System3.exe</t>
+  </si>
+  <si>
+    <t>C:\RPA\고객정보_시스템확인\Template\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\고객정보_시스템확인\SourceData\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\고객정보_시스템확인\Result\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +667,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -693,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -708,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -720,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -732,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -742,7 +749,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -752,7 +759,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -761,6 +768,7 @@
     <hyperlink ref="D6" r:id="rId1" xr:uid="{E161EEBC-9281-4D72-9DAF-EE9D72554840}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F467F2-FD64-4D5C-90B7-1DEAE39282CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA486BC8-EA30-43CE-BED7-3ED004DA3FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-588" yWindow="1368" windowWidth="22740" windowHeight="10416" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="5016" yWindow="1680" windowWidth="17256" windowHeight="10416" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,9 +90,6 @@
   <si>
     <t>ACME System3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\RPA</t>
   </si>
   <si>
     <t>코드</t>
@@ -169,6 +166,22 @@
   </si>
   <si>
     <t>C:\RPA\고객정보_시스템확인\Result\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\KS_연도별_보고서작성\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\KS_연도별_보고서작성\Template\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\KS_연도별_보고서작성\SourceData\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\RPA\KS_연도별_보고서작성\Result\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78B8AA-D076-46A8-B429-FDCCC375A88F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -635,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -666,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -697,59 +710,67 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -759,16 +780,17 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{E161EEBC-9281-4D72-9DAF-EE9D72554840}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{7582C8E3-5544-405B-AB57-732B9EB3ABDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -784,10 +806,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -849,26 +871,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
